--- a/noodle/test_result.xlsx
+++ b/noodle/test_result.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <si>
-    <t>회사명</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+  <si>
+    <t>종목명</t>
   </si>
   <si>
     <t>작성기관</t>
@@ -28,37 +28,49 @@
     <t>파일명</t>
   </si>
   <si>
-    <t>투자포인트_주요포인트</t>
-  </si>
-  <si>
-    <t>투자포인트_근거</t>
-  </si>
-  <si>
-    <t>분석_figure_사실</t>
-  </si>
-  <si>
-    <t>분석_figure_의견</t>
-  </si>
-  <si>
-    <t>분석_nonfigure_사실</t>
-  </si>
-  <si>
-    <t>분석_nonfigure_의견</t>
-  </si>
-  <si>
-    <t>분석_material_사실</t>
-  </si>
-  <si>
-    <t>분석_material_의견</t>
-  </si>
-  <si>
-    <t>분석_public_사실</t>
-  </si>
-  <si>
-    <t>분석_public_의견</t>
-  </si>
-  <si>
-    <t>섹터지표</t>
+    <t>투자 포인트 - 주요 포인트</t>
+  </si>
+  <si>
+    <t>투자 포인트 - 근거</t>
+  </si>
+  <si>
+    <t>정량적 분석 - 사실</t>
+  </si>
+  <si>
+    <t>정량적 분석 - 의견</t>
+  </si>
+  <si>
+    <t>정성적 분석 - 사실</t>
+  </si>
+  <si>
+    <t>정성적 분석 - 의견</t>
+  </si>
+  <si>
+    <t>중요 이벤트 - 사실</t>
+  </si>
+  <si>
+    <t>중요 이벤트 - 의견</t>
+  </si>
+  <si>
+    <t>공개 정보 - 사실</t>
+  </si>
+  <si>
+    <t>공개 정보 - 의견</t>
+  </si>
+  <si>
+    <t>섹터 지표</t>
+  </si>
+  <si>
+    <t>예상 이벤트 - 카테고리</t>
+  </si>
+  <si>
+    <t>예상 이벤트 - 유형</t>
+  </si>
+  <si>
+    <t>예상 이벤트 - 설명</t>
+  </si>
+  <si>
+    <t>예상 이벤트 - 확률</t>
   </si>
   <si>
     <t>HD현대중공업</t>
@@ -71,6 +83,51 @@
   </si>
   <si>
     <t>기대할_것이_많다_HD현대중공업_미래에셋증권_표지_25.02.18.pdf</t>
+  </si>
+  <si>
+    <t>HD현대중공업의 특수선사업부 매출 목표치가 2025년 2.5조원, 2035년 3.5조원으로 설정됨.</t>
+  </si>
+  <si>
+    <t>2025년 특수선 수주 목표치는 16억불로, 이는 전년 대비 +58.6% 증가한 수치임.</t>
+  </si>
+  <si>
+    <t>영업이익(24F)은 705억원으로, Consensus 영업이익(24F)은 675억원임.</t>
+  </si>
+  <si>
+    <t>EPS 성장률(24F)은 2,417.7%로 예상되며, 이는 MKT EPS 성장률(24F)인 67.9%를 크게 초과함.</t>
+  </si>
+  <si>
+    <t>미해군 사업에 대한 참여가 증가하고 있으며, 경쟁력이 충분하다고 판단됨.</t>
+  </si>
+  <si>
+    <t>향후 미해군 MRO 및 신조 사업에서의 수주 가능성이 높아질 것으로 기대됨.</t>
+  </si>
+  <si>
+    <t>미해군 MSC 7함대 MRO 입찰에 참여할 예정이며, 연간 오버홀 계약 기준으로 4~5척을 예상함.</t>
+  </si>
+  <si>
+    <t>향후 미해군 소형수상전투함 및 군수지원함 분야에서 강점을 보일 것으로 전망됨.</t>
+  </si>
+  <si>
+    <t>현재 주가는 334,500원이며 목표주가는 상향 조정된 470,000원임.</t>
+  </si>
+  <si>
+    <t>목표주가 상승 여력은 약 40.5%로 평가됨.</t>
+  </si>
+  <si>
+    <t>P/E (24F)는 41.1배이며 KOSPI는 현재 2,591.05임.</t>
+  </si>
+  <si>
+    <t>기업 실적 발표</t>
+  </si>
+  <si>
+    <t>재무 성과</t>
+  </si>
+  <si>
+    <t>HD현대중공업의 연간 영업이익 및 매출액 전망 발표</t>
+  </si>
+  <si>
+    <t>0.8</t>
   </si>
 </sst>
 </file>
@@ -428,13 +485,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -480,19 +537,76 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
